--- a/medicine/Sexualité et sexologie/Fernanda_Fernández/Fernanda_Fernández.xlsx
+++ b/medicine/Sexualité et sexologie/Fernanda_Fernández/Fernanda_Fernández.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fernanda_Fern%C3%A1ndez</t>
+          <t>Fernanda_Fernández</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sœur Fernanda Fernández fut une religieuse espagnole dont le souvenir est resté en raison du fait qu'elle fut le premier exemple d'intersexuation connu en Espagne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fernanda_Fern%C3%A1ndez</t>
+          <t>Fernanda_Fernández</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle nous est connue grâce à un médecin espagnol, le Dr Tomás Romay y Chacón qui publia cette histoire en 1813[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle nous est connue grâce à un médecin espagnol, le Dr Tomás Romay y Chacón qui publia cette histoire en 1813.
 Née en 1755 à Zújar, un village de l'abbaye de Baza, évêché de Guadiz, Fernanda Fernández  fut éduquée par des parents honnêtes et chrétiens. Comme elle avait les inclinations les plus pieuses, elle prit l'habit de religieuse capucine dans un monastère de Grenade le 10 avril 1774, à l'âge de 18 ans, et prononça ses vœux.
 Dès sa jeunesse, elle avait remarqué que lorsqu'elle éternuait, toussait, ou faisait quelque effort anormal, il se détachait d'entre les lèvres de son sexe un corps charnu d'un pouce de longueur ou un peu plus et qu'il se cachait à nouveau rapidement sans lui causer d'ennuis. Sa pudeur ne lui permit pas de réfléchir à ce phénomène, du moins n'en parla-t-elle pas à ses consœurs. Il en fut ainsi jusqu'à ce qu'elle eût 32 ans, moment à partir duquel elle commença à se sentir des penchants vers le beau sexe, des émissions fréquentes de ce corps étranger et des pulsions involontaires.
 Elle informa alors son confesseur des nouveaux sentiments et des nouveaux mouvements qu'elle remarquait, en le suppliant qu'il la tirât de ce monastère où elle jugeait ne pas devoir rester, puisqu'elle appartenait à l'autre sexe. Mais ce directeur, et les autres qu'elle eut pendant les cinq années qui suivirent, ne prêtèrent pas attention à sa demande, attribuant à des crises d’hystérie les stimulations charnelles qu'elle sentait, et à un relâchement de l'utérus ou du vagin le corps étranger qui se présentait en elle. Enfin son dernier confesseur, le père Esteban Garrido, dès qu'il fut informé de ce qui lui arrivait, après avoir réfléchi attentivement et consulté les meilleurs théologiens et les meilleurs savants, demanda à la supérieure du monastère de séparer sœur Fernanda des autres religieuses et de la garder sous clef, jusqu'à la décision de l'archevêque, don Juan Manuel Moscoso y Peralta.
